--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="161">
   <si>
     <t>Meta Front-End Developer</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>Hungarian (699)</t>
+  </si>
+  <si>
+    <t>English (1,634)</t>
+  </si>
+  <si>
+    <t>Spanish (1,098)</t>
   </si>
 </sst>
 </file>
@@ -879,12 +885,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
